--- a/stm32f746_gfx/src/ap/TouchGFX/assets/texts/texts.xlsx
+++ b/stm32f746_gfx/src/ap/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="108">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -147,6 +147,198 @@
   </si>
   <si>
     <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPOGRAPHY NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIGNMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NanumGothicCoding.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57600 bps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7600 bps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115200 bps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; bps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-+0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ -+=:\~!@#$%^&amp;*()_+&lt;&gt;?,./;':"|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ㅌ홍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">통신 속도 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">통신 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">통신 포트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt; bp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789 C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789 COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789 COM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115200  </t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1576,9 @@
         <v>4</v>
       </c>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="K4" s="5" t="s">
@@ -1466,6 +1660,26 @@
       <c r="O6" s="11"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1483,6 +1697,26 @@
       </c>
     </row>
     <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
       <c r="K8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1596,38 +1830,175 @@
       </c>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1"/>
-    <row r="5" spans="2:10" ht="15" customHeight="1"/>
-    <row r="6" spans="2:10"/>
-    <row r="7" spans="2:10"/>
-    <row r="8" spans="2:10"/>
-    <row r="9" spans="2:10"/>
-    <row r="10" spans="2:10"/>
+    <row r="4" spans="2:10" ht="15" customHeight="1">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15" customHeight="1">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="13" spans="2:10"/>
     <row r="14" spans="2:10"/>
     <row r="15" spans="2:10"/>

--- a/stm32f746_gfx/src/ap/TouchGFX/assets/texts/texts.xlsx
+++ b/stm32f746_gfx/src/ap/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10104" uniqueCount="160">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -339,6 +339,162 @@
   </si>
   <si>
     <t xml:space="preserve">115200  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB HID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_X : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_X : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_ : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_Y : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_X : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_X : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_Y : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_U : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_D : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_LtextArea_L_X.invalidate(); : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_L : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_R : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_L  : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_U : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_D : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_R : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_L : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disconnected </t>
   </si>
 </sst>
 </file>
@@ -1999,33 +2155,465 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:10"/>
-    <row r="14" spans="2:10"/>
-    <row r="15" spans="2:10"/>
-    <row r="16" spans="2:10"/>
-    <row r="17" spans="4:4"/>
-    <row r="18" spans="4:4"/>
-    <row r="19" spans="4:4"/>
-    <row r="20" spans="4:4"/>
-    <row r="21" spans="4:4"/>
-    <row r="22" spans="4:4"/>
-    <row r="23" spans="4:4"/>
-    <row r="24" spans="4:4"/>
-    <row r="25" spans="4:4"/>
-    <row r="26" spans="4:4"/>
-    <row r="27" spans="4:4"/>
-    <row r="28" spans="4:4"/>
-    <row r="29" spans="4:4"/>
-    <row r="30" spans="4:4"/>
-    <row r="31" spans="4:4"/>
-    <row r="32" spans="4:4"/>
-    <row r="33" spans="4:4"/>
-    <row r="34" spans="4:4"/>
-    <row r="35" spans="4:4"/>
-    <row r="36" spans="4:4"/>
-    <row r="37" spans="4:4"/>
-    <row r="38" spans="4:4"/>
-    <row r="39" spans="4:4"/>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="B31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="B38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="40" spans="4:4"/>
     <row r="41" spans="4:4"/>
     <row r="42" spans="4:4"/>
